--- a/WebRoot/docs/bom.xlsx
+++ b/WebRoot/docs/bom.xlsx
@@ -19,31 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
-  <si>
-    <t>BYD COACH &amp; BUS</t>
-  </si>
-  <si>
-    <t>K7M-UCSF PRODUCTION BOM</t>
-  </si>
-  <si>
-    <t>Document No.</t>
-  </si>
-  <si>
-    <t>BOM-K7M-UCSF</t>
-  </si>
-  <si>
-    <t>Document Level</t>
-  </si>
-  <si>
-    <t>Confidential</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Rev.1.3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Item</t>
   </si>
@@ -78,10 +54,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Station Code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -108,56 +80,10 @@
   </si>
   <si>
     <t>A2-1</t>
-  </si>
-  <si>
-    <t>11518685-00</t>
-  </si>
-  <si>
-    <t>MFT-232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Flat Surface Weld Cord/Graphite 6801-CR50 : H0090054</t>
-  </si>
-  <si>
-    <t>11463342-00</t>
-  </si>
-  <si>
-    <t>MFT-228</t>
-  </si>
-  <si>
-    <t>Vinyl Weld Cord(yellow)</t>
-  </si>
-  <si>
-    <t>yellow caution-939J6999</t>
-  </si>
-  <si>
-    <t>11612055-00</t>
-  </si>
-  <si>
-    <t>MFT-278</t>
-  </si>
-  <si>
-    <t>Flat Surface Weld Cord/Borneo Yellow
-  CR50 : H0090053</t>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2-2</t>
-  </si>
-  <si>
-    <t>11725479-00</t>
-  </si>
-  <si>
-    <t>MFT-302</t>
-  </si>
-  <si>
-    <t>Vinyl Weld Cord(Grey)</t>
-  </si>
-  <si>
-    <t>Flat Surface Weld Cord；auxiliary product NT6768</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROCESS Code</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -166,9 +92,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,18 +129,31 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +166,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,98 +196,33 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -429,79 +309,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect r="61639"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2943225" y="276225"/>
-          <a:ext cx="1390650" cy="962025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -827,311 +634,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="vin"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="9"/>
-    <col min="3" max="3" width="17.25" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9"/>
-    <col min="7" max="7" width="14.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18" style="9" customWidth="1"/>
-    <col min="9" max="11" width="9" style="9"/>
+    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="16.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="17.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="34.5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:11" s="8" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:12" ht="34.5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6">
         <v>5</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="33.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A7" s="4">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5">
-        <v>8</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A8" s="4">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="5">
-        <v>8</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A9" s="4">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="30" customHeight="1">
-      <c r="A10" s="4">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5">
-        <v>15</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="7"/>
+      <c r="K2" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:F4"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H1:K1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:K1 JD1:JG1 SZ1:TC1 ACV1:ACY1 AMR1:AMU1 AWN1:AWQ1 BGJ1:BGM1 BQF1:BQI1 CAB1:CAE1 CJX1:CKA1 CTT1:CTW1 DDP1:DDS1 DNL1:DNO1 DXH1:DXK1 EHD1:EHG1 EQZ1:ERC1 FAV1:FAY1 FKR1:FKU1 FUN1:FUQ1 GEJ1:GEM1 GOF1:GOI1 GYB1:GYE1 HHX1:HIA1 HRT1:HRW1 IBP1:IBS1 ILL1:ILO1 IVH1:IVK1 JFD1:JFG1 JOZ1:JPC1 JYV1:JYY1 KIR1:KIU1 KSN1:KSQ1 LCJ1:LCM1 LMF1:LMI1 LWB1:LWE1 MFX1:MGA1 MPT1:MPW1 MZP1:MZS1 NJL1:NJO1 NTH1:NTK1 ODD1:ODG1 OMZ1:ONC1 OWV1:OWY1 PGR1:PGU1 PQN1:PQQ1 QAJ1:QAM1 QKF1:QKI1 QUB1:QUE1 RDX1:REA1 RNT1:RNW1 RXP1:RXS1 SHL1:SHO1 SRH1:SRK1 TBD1:TBG1 TKZ1:TLC1 TUV1:TUY1 UER1:UEU1 UON1:UOQ1 UYJ1:UYM1 VIF1:VII1 VSB1:VSE1 WBX1:WCA1 WLT1:WLW1 WVP1:WVS1">
-      <formula1>"1,2,3,4"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>